--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_19-13.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_19-13.xlsx
@@ -371,6 +371,9 @@
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
+    <t>فرش اسنان اورل فريش</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -387,6 +390,12 @@
   </si>
   <si>
     <t>معجون سيجنال عرض 50ملل</t>
+  </si>
+  <si>
+    <t>معجون كلوز اب الصغير</t>
+  </si>
+  <si>
+    <t>16:0</t>
   </si>
   <si>
     <t>Wednesday, 7 January, 2026 7:13 PM</t>
@@ -3033,7 +3042,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -3059,17 +3068,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3085,17 +3094,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3111,13 +3120,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3137,7 +3146,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -3163,51 +3172,103 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" ht="24.75" customHeight="1">
+      <c r="A89" s="6">
+        <v>86</v>
+      </c>
+      <c t="s" r="B89" s="7">
+        <v>126</v>
+      </c>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c t="s" r="H89" s="8">
+        <v>36</v>
+      </c>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9">
+        <v>80</v>
+      </c>
+      <c r="M89" s="9"/>
+      <c t="s" r="N89" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="K89" s="10">
-        <v>4251.0200000000004</v>
-      </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="11">
-        <v>126</v>
-      </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c t="s" r="F90" s="12">
+    <row r="90" ht="25.5" customHeight="1">
+      <c r="A90" s="6">
+        <v>87</v>
+      </c>
+      <c t="s" r="B90" s="7">
         <v>127</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-      <c t="s" r="I90" s="14">
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c t="s" r="H90" s="8">
         <v>128</v>
       </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="9">
+        <v>20</v>
+      </c>
+      <c r="M90" s="9"/>
+      <c t="s" r="N90" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="K91" s="10">
+        <v>4286.0200000000004</v>
+      </c>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="11">
+        <v>129</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c t="s" r="F92" s="12">
+        <v>130</v>
+      </c>
+      <c r="G92" s="12"/>
+      <c r="H92" s="13"/>
+      <c t="s" r="I92" s="14">
+        <v>131</v>
+      </c>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="266">
+  <mergeCells count="272">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3470,10 +3531,16 @@
     <mergeCell ref="B88:G88"/>
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="I90:N90"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="I92:N92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
